--- a/raw.xlsx
+++ b/raw.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahran\Documents\Punya Zahran\Zahran Unpad\Skripsi New\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahran\Documents\Punya Zahran\Zahran Unpad\Skripsi New\Code\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C5EEE7-35A6-4799-8861-0EAE59AE3442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC573E9-8066-4E10-8D4D-27660CF3469E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9C95549-C3D8-4BA9-A696-8B7860C9FBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6412,8 +6423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C32A65-CCB1-4F50-85E5-EC08CEA6D6E5}">
   <dimension ref="A1:C1788"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A990" workbookViewId="0">
+      <selection activeCell="A1005" sqref="A1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
